--- a/file/最终结果数据/mix/赎回/arima_lstm.xlsx
+++ b/file/最终结果数据/mix/赎回/arima_lstm.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>total_redeem_amt</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个各取一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARIMA不加mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,22 +373,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="G413" sqref="G413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -387,8 +399,14 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41464</v>
       </c>
@@ -413,7 +431,7 @@
         <v>6.5338717827713277E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41465</v>
       </c>
@@ -438,7 +456,7 @@
         <v>0.88074844397880914</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41466</v>
       </c>
@@ -463,7 +481,7 @@
         <v>4.1009734097127243E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41467</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0.86073475129386579</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>41468</v>
       </c>
@@ -513,7 +531,7 @@
         <v>8.9626942637723514E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41469</v>
       </c>
@@ -538,7 +556,7 @@
         <v>0.34972281731628846</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41470</v>
       </c>
@@ -563,7 +581,7 @@
         <v>0.60693921523384708</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41471</v>
       </c>
@@ -588,7 +606,7 @@
         <v>0.39684183135227946</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>41472</v>
       </c>
@@ -613,7 +631,7 @@
         <v>0.12582514038154022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41473</v>
       </c>
@@ -638,7 +656,7 @@
         <v>0.17413702058824221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41474</v>
       </c>
@@ -663,7 +681,7 @@
         <v>2.0699994775423801E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41475</v>
       </c>
@@ -688,7 +706,7 @@
         <v>0.48972249743161655</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41476</v>
       </c>
@@ -713,7 +731,7 @@
         <v>1.0174978409976239</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41477</v>
       </c>
@@ -738,7 +756,7 @@
         <v>0.64168273653412788</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>41478</v>
       </c>
@@ -763,7 +781,7 @@
         <v>0.52139547692307309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>41479</v>
       </c>
@@ -788,7 +806,7 @@
         <v>0.49576393589690415</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>41480</v>
       </c>
@@ -813,7 +831,7 @@
         <v>0.31466146676472789</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>41481</v>
       </c>
@@ -838,7 +856,7 @@
         <v>0.25309375493479358</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>41482</v>
       </c>
@@ -863,7 +881,7 @@
         <v>0.9398551347698666</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>41483</v>
       </c>
@@ -888,7 +906,7 @@
         <v>1.5126816951922837</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41484</v>
       </c>
@@ -913,7 +931,7 @@
         <v>0.16036228953850254</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>41485</v>
       </c>
@@ -938,7 +956,7 @@
         <v>0.29029672496214509</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>41486</v>
       </c>
@@ -963,7 +981,7 @@
         <v>0.75467594797168891</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>41487</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>0.17761922467148289</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>41488</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>0.53548275177494109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>41489</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>0.19023961977793533</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41490</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>1.4608610933129558</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>41491</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>0.12335911134585988</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>41492</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>3.137123403039069E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>41493</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>0.4949947278080708</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41494</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>0.18301858665211404</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>41495</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>9.8043909241026222E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41496</v>
       </c>
@@ -1213,7 +1231,7 @@
         <v>6.2600219212089872E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41497</v>
       </c>
@@ -1238,7 +1256,7 @@
         <v>0.4806275288368716</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>41498</v>
       </c>
@@ -1263,7 +1281,7 @@
         <v>0.2707663726053568</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>41499</v>
       </c>
@@ -1288,7 +1306,7 @@
         <v>0.1553626228224978</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>41500</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>0.88627981876680073</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>41501</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>0.57809894921368821</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>41502</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>0.17525874719515594</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41503</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>5.7497817040190302</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41504</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>8.7336645354605932E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41505</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>0.22811785787631716</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41506</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>0.23182733028610683</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41507</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>0.13562932460964494</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>41508</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>0.4329399623738116</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>41509</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>0.16003989513683295</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>41510</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>0.41560000602098346</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>41511</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>0.11805518526302959</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>41512</v>
       </c>
@@ -1613,7 +1631,7 @@
         <v>0.11442904797008777</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>41513</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>0.61928173445070578</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>41514</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>0.24246519564537494</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>41515</v>
       </c>
@@ -1688,7 +1706,7 @@
         <v>9.4302868206754237E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>41516</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>0.76648181947027416</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>41517</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>8.6319612887797242E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>41518</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>0.68618496436523735</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>41519</v>
       </c>
@@ -1788,7 +1806,7 @@
         <v>1.4912542096032704</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>41520</v>
       </c>
@@ -1813,7 +1831,7 @@
         <v>0.11874434221965836</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>41521</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>0.31543402009281468</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>41522</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>0.63024640354363304</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>41523</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>0.32383133196598241</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>41524</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>0.39987863087202663</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>41525</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>0.82109942729873786</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>41526</v>
       </c>
@@ -1963,7 +1981,7 @@
         <v>0.52639338628767784</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>41527</v>
       </c>
@@ -1988,7 +2006,7 @@
         <v>5.7250910308111302E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>41528</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>0.51073065477141377</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>41529</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>0.21004896403366585</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>41530</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>0.20048303789247457</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>41531</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>0.29121456125769912</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>41532</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>0.60728490412843938</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>41533</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>0.23901703056323029</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>41534</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>0.24594646034542819</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>41535</v>
       </c>
@@ -2188,7 +2206,7 @@
         <v>0.1266425274241349</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>41536</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>3.3445881818927017</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>41537</v>
       </c>
@@ -2238,7 +2256,7 @@
         <v>1.1734848189265206</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>41538</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>0.23783488823714105</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>41539</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>0.52211223017862762</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>41540</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>0.30595046812281929</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>41541</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>5.9164950447410823E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>41542</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>0.25559883512371673</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>41543</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>0.22102441451058913</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>41544</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>0.79228931725249441</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>41545</v>
       </c>
@@ -2438,7 +2456,7 @@
         <v>0.40922370207270475</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>41546</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>0.25335638793918935</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>41547</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>0.55537254675096892</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>41548</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>2.3801149035605049</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>41549</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>3.8998499206649164</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>41550</v>
       </c>
@@ -2563,7 +2581,7 @@
         <v>1.9116101962909173</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>41551</v>
       </c>
@@ -2588,7 +2606,7 @@
         <v>0.45209580990374743</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>41552</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>0.66873537432875774</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>41553</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>0.67253546058205671</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>41554</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>0.24573957704607113</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>41555</v>
       </c>
@@ -2688,7 +2706,7 @@
         <v>0.63388532517736318</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>41556</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>0.5382990802537081</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>41557</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>0.25681108813092807</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>41558</v>
       </c>
@@ -2763,7 +2781,7 @@
         <v>0.65947484451668281</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>41559</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>0.10736665901201033</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>41560</v>
       </c>
@@ -2813,7 +2831,7 @@
         <v>0.10012596735213529</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>41561</v>
       </c>
@@ -2838,7 +2856,7 @@
         <v>9.5114808576321846E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>41562</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>0.33732019760109622</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>41563</v>
       </c>
@@ -2888,7 +2906,7 @@
         <v>0.23801138922018264</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>41564</v>
       </c>
@@ -2913,7 +2931,7 @@
         <v>0.95113950478724485</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>41565</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>0.98886528377614891</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>41566</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>0.10486294373138293</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>41567</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>0.45195005980425179</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>41568</v>
       </c>
@@ -3013,7 +3031,7 @@
         <v>6.7055203288549206E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>41569</v>
       </c>
@@ -3038,7 +3056,7 @@
         <v>0.49653889217875163</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>41570</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>3.8486138252888614E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>41571</v>
       </c>
@@ -3088,7 +3106,7 @@
         <v>0.13051357994590984</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>41572</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>3.367961740443931E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>41573</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>8.3801710250605538E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>41574</v>
       </c>
@@ -3163,7 +3181,7 @@
         <v>7.5879450316279476E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>41575</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>8.1728022893815075E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>41576</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>0.50630321669363987</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>41577</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>0.1665808436632126</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>41578</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>7.869106767746218E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>41579</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>0.2098420614464418</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>41580</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>1.2087891446430559</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>41581</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>0.43223351289630274</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>41582</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0.68497889704570702</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>41583</v>
       </c>
@@ -3388,7 +3406,7 @@
         <v>9.7438592413212802E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>41584</v>
       </c>
@@ -3413,7 +3431,7 @@
         <v>0.36961333385519546</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>41585</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>0.23037842567103914</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>41586</v>
       </c>
@@ -3463,7 +3481,7 @@
         <v>2.0867684356647841E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>41587</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>0.61045663883472712</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>41588</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>0.27362623051959184</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>41589</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>0.61551132281807297</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>41590</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>0.1856943807176776</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>41591</v>
       </c>
@@ -3588,7 +3606,7 @@
         <v>0.7390345789965399</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>41592</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>0.8538953594530595</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>41593</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>0.38832141180830443</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>41594</v>
       </c>
@@ -3663,7 +3681,7 @@
         <v>0.61868272652429268</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>41595</v>
       </c>
@@ -3688,7 +3706,7 @@
         <v>0.19143296857476452</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>41596</v>
       </c>
@@ -3713,7 +3731,7 @@
         <v>0.36460254287892913</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>41597</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>0.5974263761563634</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>41598</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>6.3182139265720277E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>41599</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>4.0231416541250696E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>41600</v>
       </c>
@@ -3813,7 +3831,7 @@
         <v>1.1369291969995145E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>41601</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>0.23718172853388905</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>41602</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>0.24914454631657576</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>41603</v>
       </c>
@@ -3888,7 +3906,7 @@
         <v>0.48032229827661227</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>41604</v>
       </c>
@@ -3913,7 +3931,7 @@
         <v>0.21798029703303878</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>41605</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>0.17401827060457256</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>41606</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>0.26049230874075363</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>41607</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>0.41740177974467718</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>41608</v>
       </c>
@@ -4013,7 +4031,7 @@
         <v>0.29188686852903134</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>41609</v>
       </c>
@@ -4038,7 +4056,7 @@
         <v>0.17413358194770701</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>41610</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>0.1350775369426056</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>41611</v>
       </c>
@@ -4088,7 +4106,7 @@
         <v>0.15243538972681497</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>41612</v>
       </c>
@@ -4113,7 +4131,7 @@
         <v>0.45739388073067327</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>41613</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>0.35846303159059267</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>41614</v>
       </c>
@@ -4163,7 +4181,7 @@
         <v>0.37949157349847545</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>41615</v>
       </c>
@@ -4188,7 +4206,7 @@
         <v>0.18197366729570108</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>41616</v>
       </c>
@@ -4213,7 +4231,7 @@
         <v>0.10288590333773921</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>41617</v>
       </c>
@@ -4238,7 +4256,7 @@
         <v>0.21143822751280394</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>41618</v>
       </c>
@@ -4263,7 +4281,7 @@
         <v>0.2467425687291217</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>41619</v>
       </c>
@@ -4288,7 +4306,7 @@
         <v>0.10922470256700038</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>41620</v>
       </c>
@@ -4313,7 +4331,7 @@
         <v>0.24289337826388291</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>41621</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>0.16748426720534518</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>41622</v>
       </c>
@@ -4363,7 +4381,7 @@
         <v>0.60924220456646694</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>41623</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>0.30036031982017453</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>41624</v>
       </c>
@@ -4413,7 +4431,7 @@
         <v>0.4107471634087792</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>41625</v>
       </c>
@@ -4438,7 +4456,7 @@
         <v>0.10973534193523726</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>41626</v>
       </c>
@@ -4463,7 +4481,7 @@
         <v>0.43650370051811466</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>41627</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>7.609663658607041E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>41628</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>1.8673220094542115E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>41629</v>
       </c>
@@ -4538,7 +4556,7 @@
         <v>0.48349657794894474</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>41630</v>
       </c>
@@ -4563,7 +4581,7 @@
         <v>0.27328405143302448</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>41631</v>
       </c>
@@ -4588,7 +4606,7 @@
         <v>0.12252209471603287</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>41632</v>
       </c>
@@ -4613,7 +4631,7 @@
         <v>6.9743377404227258E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>41633</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>0.23656066655599001</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>41634</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>0.37362037393988518</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>41635</v>
       </c>
@@ -4688,7 +4706,7 @@
         <v>0.19520636780928832</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>41636</v>
       </c>
@@ -4713,7 +4731,7 @@
         <v>1.3137626683644164</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>41637</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>0.88100078343930011</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>41638</v>
       </c>
@@ -4763,7 +4781,7 @@
         <v>0.37514946451978104</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>41639</v>
       </c>
@@ -4788,7 +4806,7 @@
         <v>1.4487241281975479E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>41640</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>0.86245797748687425</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>41641</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>0.32687082437027182</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>41642</v>
       </c>
@@ -4863,7 +4881,7 @@
         <v>0.30359650181571363</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>41643</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>2.4178075687374463E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>41644</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>0.35325315063599522</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>41645</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>6.4697118410159959E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>41646</v>
       </c>
@@ -4963,7 +4981,7 @@
         <v>0.16530806838127865</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>41647</v>
       </c>
@@ -4988,7 +5006,7 @@
         <v>0.33392744945468833</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>41648</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>0.39697616027131372</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>41649</v>
       </c>
@@ -5038,7 +5056,7 @@
         <v>0.30760505919738296</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>41650</v>
       </c>
@@ -5063,7 +5081,7 @@
         <v>0.46683490096530172</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>41651</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>0.22308694076819971</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>41652</v>
       </c>
@@ -5113,7 +5131,7 @@
         <v>0.1127911192259014</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>41653</v>
       </c>
@@ -5138,7 +5156,7 @@
         <v>1.8131081231517413E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>41654</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>4.2560355018029232E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>41655</v>
       </c>
@@ -5188,7 +5206,7 @@
         <v>0.14499686539094811</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>41656</v>
       </c>
@@ -5213,7 +5231,7 @@
         <v>0.18823219312508876</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>41657</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>0.25082352904820882</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>41658</v>
       </c>
@@ -5263,7 +5281,7 @@
         <v>0.23084773799355565</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>41659</v>
       </c>
@@ -5288,7 +5306,7 @@
         <v>0.63824432983023838</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>41660</v>
       </c>
@@ -5313,7 +5331,7 @@
         <v>9.4366823631179639E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>41661</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>7.9514581914861313E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>41662</v>
       </c>
@@ -5363,7 +5381,7 @@
         <v>0.18103384669175929</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>41663</v>
       </c>
@@ -5388,7 +5406,7 @@
         <v>0.37140551653734788</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>41664</v>
       </c>
@@ -5413,7 +5431,7 @@
         <v>0.1743854171216821</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>41665</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>0.40960602517685785</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>41666</v>
       </c>
@@ -5463,7 +5481,7 @@
         <v>0.18517699197423768</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>41667</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>0.10293768965059183</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>41668</v>
       </c>
@@ -5513,7 +5531,7 @@
         <v>0.10500865044449254</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>41669</v>
       </c>
@@ -5538,7 +5556,7 @@
         <v>1.1519200412050346</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>41670</v>
       </c>
@@ -5563,7 +5581,7 @@
         <v>2.7532845263508525</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>41671</v>
       </c>
@@ -5588,7 +5606,7 @@
         <v>0.49350327717592885</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>41672</v>
       </c>
@@ -5613,7 +5631,7 @@
         <v>4.6585349212894727</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>41673</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>1.7393359586810389</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>41674</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>1.2036871941630722</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>41675</v>
       </c>
@@ -5688,7 +5706,7 @@
         <v>2.4715485502093144E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>41676</v>
       </c>
@@ -5713,7 +5731,7 @@
         <v>0.19604218658866226</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>41677</v>
       </c>
@@ -5738,7 +5756,7 @@
         <v>0.61186179921690198</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>41678</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>9.5121765319800294E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>41679</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>0.31994125216911945</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>41680</v>
       </c>
@@ -5813,7 +5831,7 @@
         <v>0.46474505362969792</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>41681</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>0.18192409827405831</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>41682</v>
       </c>
@@ -5863,7 +5881,7 @@
         <v>0.35890970151581231</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>41683</v>
       </c>
@@ -5888,7 +5906,7 @@
         <v>0.26500518626762914</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>41684</v>
       </c>
@@ -5913,7 +5931,7 @@
         <v>0.16215218044142418</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>41685</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>0.71287818698217909</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>41686</v>
       </c>
@@ -5963,7 +5981,7 @@
         <v>0.11217397325985892</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>41687</v>
       </c>
@@ -5988,7 +6006,7 @@
         <v>0.33457287916000211</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>41688</v>
       </c>
@@ -6013,7 +6031,7 @@
         <v>5.0268150716898642E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>41689</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>0.15376577132515559</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>41690</v>
       </c>
@@ -6063,7 +6081,7 @@
         <v>0.29254155274073945</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>41691</v>
       </c>
@@ -6088,7 +6106,7 @@
         <v>0.42445280467232027</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>41692</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>8.8713068481522384E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>41693</v>
       </c>
@@ -6138,7 +6156,7 @@
         <v>5.8713276695880508E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>41694</v>
       </c>
@@ -6163,7 +6181,7 @@
         <v>0.43284891392394331</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>41695</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>7.5955635084208689E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>41696</v>
       </c>
@@ -6213,7 +6231,7 @@
         <v>4.4764732410592409E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>41697</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>0.46718652666935556</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>41698</v>
       </c>
@@ -6263,7 +6281,7 @@
         <v>7.0879630750412426E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>41699</v>
       </c>
@@ -6288,7 +6306,7 @@
         <v>6.9300733095536846E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>41700</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>2.2355982467659515E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>41701</v>
       </c>
@@ -6338,7 +6356,7 @@
         <v>0.30706877365709423</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>41702</v>
       </c>
@@ -6363,7 +6381,7 @@
         <v>0.35732459425829455</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>41703</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>0.31689575494325639</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>41704</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>0.17278514885082147</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>41705</v>
       </c>
@@ -6438,7 +6456,7 @@
         <v>5.8263577322288485E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>41706</v>
       </c>
@@ -6463,7 +6481,7 @@
         <v>0.37727020297042541</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>41707</v>
       </c>
@@ -6488,7 +6506,7 @@
         <v>7.7300138227683675E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>41708</v>
       </c>
@@ -6513,7 +6531,7 @@
         <v>8.4860624746689289E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>41709</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>0.48313094846570465</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>41710</v>
       </c>
@@ -6563,7 +6581,7 @@
         <v>0.20049174056153321</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>41711</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>9.9185533441147666E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>41712</v>
       </c>
@@ -6613,7 +6631,7 @@
         <v>1.4454321053128079E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>41713</v>
       </c>
@@ -6638,7 +6656,7 @@
         <v>4.1313105766378456E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>41714</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>0.38720730405650172</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>41715</v>
       </c>
@@ -6688,7 +6706,7 @@
         <v>0.12821539713334931</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>41716</v>
       </c>
@@ -6713,7 +6731,7 @@
         <v>7.4610660912295651E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>41717</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>0.17203212569483375</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>41718</v>
       </c>
@@ -6763,7 +6781,7 @@
         <v>6.66022906757089E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>41719</v>
       </c>
@@ -6788,7 +6806,7 @@
         <v>0.20042916361040311</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>41720</v>
       </c>
@@ -6813,7 +6831,7 @@
         <v>0.6240932575111231</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>41721</v>
       </c>
@@ -6838,7 +6856,7 @@
         <v>0.30557935462753077</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>41722</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>0.2767516552762434</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>41723</v>
       </c>
@@ -6888,7 +6906,7 @@
         <v>0.12407952143854201</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>41724</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>0.28948331142063916</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>41725</v>
       </c>
@@ -6938,7 +6956,7 @@
         <v>7.8614256037517994E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>41726</v>
       </c>
@@ -6963,7 +6981,7 @@
         <v>0.20903357279380866</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>41727</v>
       </c>
@@ -6988,7 +7006,7 @@
         <v>0.64219346758942109</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>41728</v>
       </c>
@@ -7013,7 +7031,7 @@
         <v>0.11370294086038125</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>41729</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>0.14828257006891687</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>41730</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>0.25239143003747994</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>41731</v>
       </c>
@@ -7088,7 +7106,7 @@
         <v>0.12207701749342227</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>41732</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>0.12856828470694062</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>41733</v>
       </c>
@@ -7138,7 +7156,7 @@
         <v>0.47116918465887442</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>41734</v>
       </c>
@@ -7163,7 +7181,7 @@
         <v>5.4888137282032276E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>41735</v>
       </c>
@@ -7188,7 +7206,7 @@
         <v>0.60141066541895116</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>41736</v>
       </c>
@@ -7213,7 +7231,7 @@
         <v>0.65071489494560486</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>41737</v>
       </c>
@@ -7238,7 +7256,7 @@
         <v>0.15196346496324653</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>41738</v>
       </c>
@@ -7263,7 +7281,7 @@
         <v>0.12463065358821522</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>41739</v>
       </c>
@@ -7288,7 +7306,7 @@
         <v>6.8060295579527683E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>41740</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>5.4206939133123321E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>41749</v>
       </c>
@@ -7338,7 +7356,7 @@
         <v>0.19325285811556039</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>41750</v>
       </c>
@@ -7363,7 +7381,7 @@
         <v>5.4062547262626916E-4</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41751</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1.0096961148500762E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41752</v>
       </c>
@@ -7413,7 +7431,7 @@
         <v>3.7055623463699658E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41753</v>
       </c>
@@ -7438,7 +7456,7 @@
         <v>0.20102956173491313</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>41754</v>
       </c>
@@ -7463,7 +7481,7 @@
         <v>5.3438752155232534E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>41755</v>
       </c>
@@ -7488,7 +7506,7 @@
         <v>3.7556283887472293E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>41756</v>
       </c>
@@ -7513,7 +7531,7 @@
         <v>1.2169972185188746E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>41757</v>
       </c>
@@ -7538,7 +7556,7 @@
         <v>0.14217693058779948</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>41758</v>
       </c>
@@ -7563,7 +7581,7 @@
         <v>8.0011673220861279E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>41759</v>
       </c>
@@ -7588,7 +7606,7 @@
         <v>3.4478917036762209E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>41760</v>
       </c>
@@ -7613,7 +7631,7 @@
         <v>0.86497637688394036</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>41761</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>0.67508510455654347</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>41762</v>
       </c>
@@ -7663,7 +7681,7 @@
         <v>0.43396849066160359</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>41763</v>
       </c>
@@ -7688,7 +7706,7 @@
         <v>0.52536646170228185</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>41764</v>
       </c>
@@ -7713,7 +7731,7 @@
         <v>0.19944659823556324</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>41765</v>
       </c>
@@ -7738,7 +7756,7 @@
         <v>0.10781980826428414</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>41766</v>
       </c>
@@ -7763,7 +7781,7 @@
         <v>0.32148285028588375</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>41767</v>
       </c>
@@ -7788,7 +7806,7 @@
         <v>0.12473190894434009</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>41768</v>
       </c>
@@ -7813,7 +7831,7 @@
         <v>0.11138867754727323</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>41769</v>
       </c>
@@ -7838,7 +7856,7 @@
         <v>0.39204705366841247</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>41770</v>
       </c>
@@ -7863,7 +7881,7 @@
         <v>0.52297647716935347</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>41771</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>8.7823822957383391E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>41772</v>
       </c>
@@ -7913,7 +7931,7 @@
         <v>6.0167859889780927E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>41773</v>
       </c>
@@ -7938,7 +7956,7 @@
         <v>0.19245676064230147</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>41774</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0.1639934708262798</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>41775</v>
       </c>
@@ -7988,7 +8006,7 @@
         <v>0.14281971373776906</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>41776</v>
       </c>
@@ -8013,7 +8031,7 @@
         <v>0.38030643983712731</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>41777</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>0.30353753899105029</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>41778</v>
       </c>
@@ -8063,7 +8081,7 @@
         <v>0.13328351357561491</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>41779</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>2.9032510562191905E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>41780</v>
       </c>
@@ -8113,7 +8131,7 @@
         <v>6.2838450219544748E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>41781</v>
       </c>
@@ -8138,7 +8156,7 @@
         <v>2.8411034179111869E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>41782</v>
       </c>
@@ -8163,7 +8181,7 @@
         <v>8.9956945213467754E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>41783</v>
       </c>
@@ -8188,7 +8206,7 @@
         <v>0.13236316509253149</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>41784</v>
       </c>
@@ -8213,7 +8231,7 @@
         <v>0.17722585761631798</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>41785</v>
       </c>
@@ -8238,7 +8256,7 @@
         <v>6.2067077459371872E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>41786</v>
       </c>
@@ -8263,7 +8281,7 @@
         <v>0.18850299804316203</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>41787</v>
       </c>
@@ -8288,7 +8306,7 @@
         <v>0.30785235152718265</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>41788</v>
       </c>
@@ -8313,7 +8331,7 @@
         <v>2.2519367787047471E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>41789</v>
       </c>
@@ -8338,7 +8356,7 @@
         <v>0.11366924125550935</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>41790</v>
       </c>
@@ -8363,7 +8381,7 @@
         <v>0.60869320079747136</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>41791</v>
       </c>
@@ -8388,7 +8406,7 @@
         <v>0.41510012400582413</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>41792</v>
       </c>
@@ -8413,7 +8431,7 @@
         <v>0.4545120472915401</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>41793</v>
       </c>
@@ -8438,7 +8456,7 @@
         <v>0.40646886143716549</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>41794</v>
       </c>
@@ -8463,7 +8481,7 @@
         <v>8.576644684061864E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>41795</v>
       </c>
@@ -8488,7 +8506,7 @@
         <v>0.1852942966835974</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>41796</v>
       </c>
@@ -8513,7 +8531,7 @@
         <v>8.3697457423253588E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>41797</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>0.50824309449008898</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>41798</v>
       </c>
@@ -8563,7 +8581,7 @@
         <v>6.4582991643986246E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>41799</v>
       </c>
@@ -8588,7 +8606,7 @@
         <v>0.15468364770480508</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>41800</v>
       </c>
@@ -8613,7 +8631,7 @@
         <v>1.3272972997671455E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>41801</v>
       </c>
@@ -8638,7 +8656,7 @@
         <v>0.19390627741210922</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>41802</v>
       </c>
@@ -8663,7 +8681,7 @@
         <v>0.1410103054797483</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>41803</v>
       </c>
@@ -8688,7 +8706,7 @@
         <v>0.37883028005964031</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>41804</v>
       </c>
@@ -8713,7 +8731,7 @@
         <v>4.6737311336198996E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>41805</v>
       </c>
@@ -8738,7 +8756,7 @@
         <v>0.96293859803314852</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>41806</v>
       </c>
@@ -8763,7 +8781,7 @@
         <v>0.5156183466659392</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>41807</v>
       </c>
@@ -8788,7 +8806,7 @@
         <v>0.26062484853680912</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>41808</v>
       </c>
@@ -8813,7 +8831,7 @@
         <v>0.1259061171349854</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>41809</v>
       </c>
@@ -8838,7 +8856,7 @@
         <v>0.18617569903535364</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>41810</v>
       </c>
@@ -8863,7 +8881,7 @@
         <v>0.12411213726114621</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>41811</v>
       </c>
@@ -8888,7 +8906,7 @@
         <v>3.8433335775573389E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>41812</v>
       </c>
@@ -8913,7 +8931,7 @@
         <v>0.42750808313306615</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>41813</v>
       </c>
@@ -8938,7 +8956,7 @@
         <v>4.6081549378411246E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>41814</v>
       </c>
@@ -8963,7 +8981,7 @@
         <v>0.10070049698450306</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>41815</v>
       </c>
@@ -8988,7 +9006,7 @@
         <v>0.31653836057845641</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>41816</v>
       </c>
@@ -9013,7 +9031,7 @@
         <v>8.442008718545195E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>41817</v>
       </c>
@@ -9038,7 +9056,7 @@
         <v>0.1436995636879102</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>41818</v>
       </c>
@@ -9063,7 +9081,7 @@
         <v>2.3885882014579633E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>41819</v>
       </c>
@@ -9088,7 +9106,7 @@
         <v>0.14197737569428648</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>41820</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>0.27107731353970793</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>41821</v>
       </c>
@@ -9138,7 +9156,7 @@
         <v>0.10557649194769629</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>41822</v>
       </c>
@@ -9163,7 +9181,7 @@
         <v>0.169026868689612</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>41823</v>
       </c>
@@ -9188,7 +9206,7 @@
         <v>0.11592799039534234</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>41824</v>
       </c>
@@ -9213,7 +9231,7 @@
         <v>0.19007917365405072</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>41825</v>
       </c>
@@ -9238,7 +9256,7 @@
         <v>0.18516910120411706</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>41826</v>
       </c>
@@ -9263,7 +9281,7 @@
         <v>0.33861385787703036</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>41827</v>
       </c>
@@ -9288,7 +9306,7 @@
         <v>8.7875042501860557E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>41828</v>
       </c>
@@ -9313,7 +9331,7 @@
         <v>1.4669207719831817E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>41829</v>
       </c>
@@ -9338,7 +9356,7 @@
         <v>0.23140231746003342</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>41830</v>
       </c>
@@ -9363,7 +9381,7 @@
         <v>0.1908579431675004</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>41831</v>
       </c>
@@ -9388,7 +9406,7 @@
         <v>0.24946453509905331</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>41832</v>
       </c>
@@ -9413,7 +9431,7 @@
         <v>0.47083828979490727</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>41833</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>7.0169764372293414E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>41834</v>
       </c>
@@ -9463,7 +9481,7 @@
         <v>3.3911974899505939E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>41835</v>
       </c>
@@ -9488,7 +9506,7 @@
         <v>0.14779654748560814</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>41836</v>
       </c>
@@ -9513,7 +9531,7 @@
         <v>0.191936218057567</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>41837</v>
       </c>
@@ -9538,7 +9556,7 @@
         <v>0.13991438127713718</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>41838</v>
       </c>
@@ -9563,7 +9581,7 @@
         <v>0.29148887072326346</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>41839</v>
       </c>
@@ -9588,7 +9606,7 @@
         <v>0.15536873926212366</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>41840</v>
       </c>
@@ -9613,7 +9631,7 @@
         <v>5.8612641433846722E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>41841</v>
       </c>
@@ -9638,7 +9656,7 @@
         <v>0.37638616579115319</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>41842</v>
       </c>
@@ -9663,7 +9681,7 @@
         <v>8.6585016446696098E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>41843</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>7.3171334852611181E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>41844</v>
       </c>
@@ -9713,7 +9731,7 @@
         <v>0.15218178555917181</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>41845</v>
       </c>
@@ -9738,7 +9756,7 @@
         <v>0.14656269760001445</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>41846</v>
       </c>
@@ -9763,7 +9781,7 @@
         <v>0.28853346120539936</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>41847</v>
       </c>
@@ -9788,7 +9806,7 @@
         <v>0.46431622691207047</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>41848</v>
       </c>
@@ -9813,7 +9831,7 @@
         <v>9.4217238866687869E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>41849</v>
       </c>
@@ -9838,7 +9856,7 @@
         <v>8.865980301186327E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>41850</v>
       </c>
@@ -9863,7 +9881,7 @@
         <v>0.22525269041717935</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>41851</v>
       </c>
@@ -9888,7 +9906,7 @@
         <v>4.9910797433594424E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>41852</v>
       </c>
@@ -9913,7 +9931,7 @@
         <v>8.8155203186963016E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>41853</v>
       </c>
@@ -9938,7 +9956,7 @@
         <v>0.24641349525087702</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>41854</v>
       </c>
@@ -9963,7 +9981,7 @@
         <v>0.4508371454736631</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>41855</v>
       </c>
@@ -9988,7 +10006,7 @@
         <v>0.16676338331466067</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>41856</v>
       </c>
@@ -10013,7 +10031,7 @@
         <v>0.34516371729568146</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>41857</v>
       </c>
@@ -10038,7 +10056,7 @@
         <v>0.11524050844402965</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>41858</v>
       </c>
@@ -10063,7 +10081,7 @@
         <v>4.4245165391273301E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>41859</v>
       </c>
@@ -10088,7 +10106,7 @@
         <v>0.16404937658711732</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>41860</v>
       </c>
@@ -10113,7 +10131,7 @@
         <v>0.32522131087342482</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>41861</v>
       </c>
@@ -10138,7 +10156,7 @@
         <v>3.2851308302690403E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>41862</v>
       </c>
@@ -10163,7 +10181,7 @@
         <v>0.30922758592157995</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>41863</v>
       </c>
@@ -10188,7 +10206,7 @@
         <v>5.9543101338542931E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>41864</v>
       </c>
@@ -10213,7 +10231,7 @@
         <v>2.4920379031710058E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>41865</v>
       </c>
@@ -10238,7 +10256,7 @@
         <v>0.34899159397101537</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>41866</v>
       </c>
@@ -10263,7 +10281,7 @@
         <v>0.10345741208120429</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>41867</v>
       </c>
@@ -10288,7 +10306,7 @@
         <v>0.18956532879904356</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>41868</v>
       </c>
@@ -10313,7 +10331,7 @@
         <v>0.4776441917535173</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>41869</v>
       </c>
@@ -10338,7 +10356,7 @@
         <v>9.3196241482816716E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>41870</v>
       </c>
@@ -10363,7 +10381,7 @@
         <v>7.8458549799559144E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>41871</v>
       </c>
@@ -10388,7 +10406,7 @@
         <v>0.31058762284629909</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>41872</v>
       </c>
@@ -10413,7 +10431,7 @@
         <v>3.4590903632148617E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>41873</v>
       </c>
@@ -10438,7 +10456,7 @@
         <v>0.32685111775738773</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>41874</v>
       </c>
@@ -10463,7 +10481,7 @@
         <v>0.17020519102526152</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>41875</v>
       </c>
@@ -10488,7 +10506,7 @@
         <v>8.6898088907204116E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>41876</v>
       </c>
@@ -10513,7 +10531,7 @@
         <v>0.11218396479144752</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>41877</v>
       </c>
@@ -10538,7 +10556,7 @@
         <v>1.6829009679441325E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>41878</v>
       </c>
@@ -10563,7 +10581,7 @@
         <v>0.41835460672301339</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>41879</v>
       </c>
@@ -10588,7 +10606,7 @@
         <v>0.10201974084991298</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>41880</v>
       </c>
@@ -10613,7 +10631,7 @@
         <v>3.5442453797789202E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>41881</v>
       </c>
@@ -10638,7 +10656,7 @@
         <v>0.12881188110038969</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G412" s="1">
         <f>AVERAGE(G268:G411)</f>
         <v>0.19974037069908421</v>
